--- a/biology/Botanique/Pigamon_des_Alpes/Pigamon_des_Alpes.xlsx
+++ b/biology/Botanique/Pigamon_des_Alpes/Pigamon_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pigamon des Alpes (Thalictrum alpinum) est une espèce de plantes à fleurs du genre Thalictrum et de la famille des Renonculacées. Elle a une distribution circumboréale, préférant les milieux humides alpins et de toundra (distribution arctico-alpinne).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une herbacées vivaces.
-La tige de la plante est scapiforme[3]. Les fleurs ont quatre ou cinq pétales.
+La tige de la plante est scapiforme. Les fleurs ont quatre ou cinq pétales.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a une distribution circumboréale et est trouvée au nord de l'Amérique du Nord (Alaska, Canada, Groenland), de l'Europe et de l'Asie, ainsi que des les massifs montagneux plus au sud. En France, on la trouve notamment à la Pointe de l'Eyssina, dans le massif de Parpaillon, dans les Alpes.
 </t>
@@ -574,19 +590,21 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 novembre 2019)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 novembre 2019) :
 sous-espèce Thalictrum alpinum subsp. alpinum
 sous-espèce Thalictrum alpinum subsp. udocanicum
 variété Thalictrum alpinum var. elatum
 variété Thalictrum alpinum var. microphyllum
 variété Thalictrum alpinum var. minutissimum
-Selon NCBI  (19 novembre 2019)[5] :
+Selon NCBI  (19 novembre 2019) :
 variété Thalictrum alpinum var. elatum O.E. Ulbr.
-Selon The Plant List            (19 novembre 2019)[1] :
+Selon The Plant List            (19 novembre 2019) :
 variété Thalictrum alpinum var. elatum O.E. Ulbr.
-Selon Tropicos                                           (19 novembre 2019)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 novembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 variété Thalictrum alpinum var. acutilobum H. Hara
 variété Thalictrum alpinum var. alpinum
 variété Thalictrum alpinum var. elatum Ulbr.
@@ -625,7 +643,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, l'espèce figure sur la liste rouge des plantes.
 </t>
